--- a/data/clod cards.xlsx
+++ b/data/clod cards.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/rosemary_hartman_water_ca_gov/Documents/smelt cages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhartman\OneDrive - California Department of Water Resources\smelt cages\Smelt-cages\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A86B2CF2-4938-4D42-BBD7-AB3BF8099A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71C917A-E117-42F7-80C0-CF457DC0B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{399A8B5C-8288-46FA-BE0D-D4771BC3BEDC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{399A8B5C-8288-46FA-BE0D-D4771BC3BEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="test cards" sheetId="1" r:id="rId1"/>
+    <sheet name="finalcards" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
   <si>
     <t>Card #</t>
   </si>
@@ -78,16 +79,56 @@
   </si>
   <si>
     <t>epoxy</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>CageNum</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>percentdiff</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>treatment2</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>scrub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,9 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,19 +475,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063325ED-076D-40E1-9FBB-6C91F602A8A6}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="3" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,7 +539,7 @@
         <v>60.79</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,7 +565,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,7 +591,7 @@
         <v>29.04</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -593,7 +636,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -619,7 +662,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -645,7 +688,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -671,7 +714,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -698,6 +741,772 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C818A2E-D1E3-4750-8077-5F7BDF0A8968}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.13654618499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>81.39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12.39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.152230004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.301943199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>73.64</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.111895709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>66.56</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.119591346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>72.19</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2">
+        <v>56.8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.21318742199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>76.11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>25.71</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.33780055199999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45210</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.106100796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>87.88</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.22849340000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>70.02</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.15024278799999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>72.06</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45.23</v>
+      </c>
+      <c r="K12" s="2">
+        <f>C12-J12</f>
+        <v>26.830000000000005</v>
+      </c>
+      <c r="L12" s="2">
+        <f>K12/C12</f>
+        <v>0.37232861504301978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65.3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.122511485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>67.47</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>17.07</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.25300133400000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>70.61</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2">
+        <v>61</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9.61</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.13609970299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
+        <v>68.2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>12.09</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.15057915099999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>90.18</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>28.28</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.313595032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>70.47</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>68.52</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>70.47</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>80.98</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
+    <sortCondition ref="G2:G22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -715,15 +1524,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077DB800C29E38A4082BE3FE3AD5BB76A" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57bfd154d00f9d412063991bd8d7f7ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC" xmlns:ns3="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc" xmlns:ns4="84fa792b-db08-4e92-885f-28de3837c9fa" xmlns:ns5="6f98d64a-07ba-4b39-8e6f-dd01000050b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce92682e6f136e01c8e36811ac4f639" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC"/>
@@ -980,14 +1780,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDB7BBE-2391-4856-BCB3-60CD81D9BA7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEDB7BBE-2391-4856-BCB3-60CD81D9BA7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc"/>
+    <ds:schemaRef ds:uri="6f98d64a-07ba-4b39-8e6f-dd01000050b1"/>
+    <ds:schemaRef ds:uri="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298463AB-17D2-4363-A02F-7CAD4B88E708}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C1321D-9D04-4E35-BA30-78CA2B9EF253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC"/>
+    <ds:schemaRef ds:uri="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc"/>
+    <ds:schemaRef ds:uri="84fa792b-db08-4e92-885f-28de3837c9fa"/>
+    <ds:schemaRef ds:uri="6f98d64a-07ba-4b39-8e6f-dd01000050b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C1321D-9D04-4E35-BA30-78CA2B9EF253}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298463AB-17D2-4363-A02F-7CAD4B88E708}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>